--- a/data/trans_bre/P24_7_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P24_7_R-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -650,419 +659,271 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>7,53</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>5,14</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>3,07</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>9,21</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>2,99</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>6,0</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>237,39%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>113,52%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>65,8%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>103,71%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>36,94%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>51,0%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>8.099756372057609</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>5.374544749584362</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>2.982317527838958</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>9.369647456664614</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>2.988433481811593</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>6.104524692833651</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>2.713103509733446</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>1.203721941223016</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>0.6505352442437321</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>1.06004233817804</v>
+      </c>
+      <c r="M4" s="6" t="n">
+        <v>0.3693797880773543</v>
+      </c>
+      <c r="N4" s="6" t="n">
+        <v>0.5240786292217315</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>4,58; 10,21</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>2,54; 7,79</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>0,43; 5,58</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>5,11; 13,45</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-0,23; 5,67</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>2,31; 9,54</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>106,9; 450,47</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>45,15; 241,91</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>4,29; 160,11</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>44,87; 186,3</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>-2,27; 84,98</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>16,29; 96,48</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>5.154510390288563</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>2.800175806786163</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>0.3996120449653633</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>5.337403322312829</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-0.2262470381412315</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>2.453491026628609</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>1.31081860090046</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>0.4704202283560154</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>0.02870781528703993</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>0.4556731476127662</v>
+      </c>
+      <c r="M5" s="6" t="n">
+        <v>-0.02267504306352865</v>
+      </c>
+      <c r="N5" s="6" t="n">
+        <v>0.1758464757100833</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>11.06859091016516</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>8.037569543812626</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>5.380240385209</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>13.75691902057451</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>5.67224126902146</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>9.595427462826263</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>5.147182757619152</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>2.47771781579161</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>1.550837301740902</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>1.91386438763486</v>
+      </c>
+      <c r="M6" s="6" t="n">
+        <v>0.8497832526311415</v>
+      </c>
+      <c r="N6" s="6" t="n">
+        <v>0.9658237711761953</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>5,1</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>4,87</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>5,27</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>13,13</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>3,7</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>8,38</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>149,3%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>116,95%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>112,15%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>192,09%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>56,71%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>69,05%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>2,19; 9,01</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>2,16; 7,62</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>2,38; 9,4</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>7,89; 18,76</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-1,69; 8,76</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>1,06; 15,43</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>43,66; 364,02</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>40,48; 262,05</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>35,35; 248,83</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>84,25; 346,76</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>-22,34; 195,74</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>5,83; 164,94</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>4.462360237474409</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>5.298151550743734</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>5.337578017956273</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>13.02448847112348</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>3.703880524282707</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>8.252821022272059</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>1.392226838620331</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>1.301286488131779</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>1.139860962773847</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>1.981292554790826</v>
+      </c>
+      <c r="M7" s="6" t="n">
+        <v>0.5670896910701664</v>
+      </c>
+      <c r="N7" s="6" t="n">
+        <v>0.6790801936893894</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>11,45</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>2,07</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>2,06</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>1,25</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>1396,59%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>24,38%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>27,2%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>12,16%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>1.788509317888357</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>2.541146029612289</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>2.438470834304259</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>8.038683352752644</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>-1.685729530530846</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>1.072143962722482</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>0.37509212048509</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>0.4669924357524143</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>0.3616780980209969</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>0.8901253600210792</v>
+      </c>
+      <c r="M8" s="6" t="n">
+        <v>-0.22339103827705</v>
+      </c>
+      <c r="N8" s="6" t="n">
+        <v>0.04948692837052234</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>6,57; 18,02</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-4,93; 7,9</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-3,98; 8,48</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-6,71; 8,89</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-42,29; 142,47</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>-40,05; 179,05</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>-46,86; 128,76</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>7.692515736005921</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>8.293096103206675</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>9.384583938785198</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>18.43401462980588</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>8.760928591565632</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>15.38818150667803</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>3.476319574208023</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>2.882694673558396</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>2.509707318116436</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>3.524539070280632</v>
+      </c>
+      <c r="M9" s="6" t="n">
+        <v>1.957411508137457</v>
+      </c>
+      <c r="N9" s="6" t="n">
+        <v>1.620237490806435</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1070,137 +931,241 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>7,06</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>4,67</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>3,77</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>9,83</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>3,18</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>6,52</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>236,81%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>95,99%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>74,85%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>119,51%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>41,19%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>54,96%</t>
-        </is>
-      </c>
+      <c r="C10" s="5" t="n">
+        <v>12.95818142977766</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>2.049928396880364</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>2.209267906791589</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>1.245095522686195</v>
+      </c>
+      <c r="G10" s="5" t="inlineStr"/>
+      <c r="H10" s="5" t="inlineStr"/>
+      <c r="I10" s="6" t="n">
+        <v>20.31965275629288</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>0.2451583146692623</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>0.2888933671506441</v>
+      </c>
+      <c r="L10" s="6" t="n">
+        <v>0.1186301040514374</v>
+      </c>
+      <c r="M10" s="6" t="inlineStr"/>
+      <c r="N10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>5,16; 9,08</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>2,79; 6,49</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>1,79; 5,79</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>6,88; 13,08</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>0,71; 5,83</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>3,13; 9,74</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>142,15; 385,52</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>49,65; 155,95</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>29,55; 136,69</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>69,58; 179,99</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>7,83; 89,25</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>22,05; 92,21</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>7.603010157244499</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-4.872365945066725</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-4.086654104368118</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-6.803771008609666</v>
+      </c>
+      <c r="G11" s="5" t="inlineStr"/>
+      <c r="H11" s="5" t="inlineStr"/>
+      <c r="I11" s="6" t="inlineStr"/>
+      <c r="J11" s="6" t="n">
+        <v>-0.42783079658391</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>-0.3997822638153716</v>
+      </c>
+      <c r="L11" s="6" t="n">
+        <v>-0.4700092512628036</v>
+      </c>
+      <c r="M11" s="6" t="inlineStr"/>
+      <c r="N11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>20.61016864870789</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>7.733541572715738</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>8.626645785854215</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>9.18135337334849</v>
+      </c>
+      <c r="G12" s="5" t="inlineStr"/>
+      <c r="H12" s="5" t="inlineStr"/>
+      <c r="I12" s="6" t="inlineStr"/>
+      <c r="J12" s="6" t="n">
+        <v>1.4105808763474</v>
+      </c>
+      <c r="K12" s="6" t="n">
+        <v>1.77689723824951</v>
+      </c>
+      <c r="L12" s="6" t="n">
+        <v>1.343451276036518</v>
+      </c>
+      <c r="M12" s="6" t="inlineStr"/>
+      <c r="N12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>7.264611286514485</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>4.946422840773856</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>3.764546037657848</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>9.875897242900747</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>3.179337129376904</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>6.566529968123028</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>2.609123837718299</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>1.03494586436651</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>0.7529034985033641</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>1.214835990531926</v>
+      </c>
+      <c r="M13" s="6" t="n">
+        <v>0.4119137649784143</v>
+      </c>
+      <c r="N13" s="6" t="n">
+        <v>0.5578628163685655</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>5.292547630138998</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>3.064667639201536</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>1.752700263788405</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>6.897131038612685</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>0.7137012335322021</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>3.260982314344581</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>1.53549767743541</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>0.5279248860704016</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>0.2885126218676151</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>0.7161566174626438</v>
+      </c>
+      <c r="M14" s="6" t="n">
+        <v>0.07832476298728012</v>
+      </c>
+      <c r="N14" s="6" t="n">
+        <v>0.2328844771860225</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>9.236773244102569</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>6.812803081688469</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>5.768036995462587</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>12.83040272006697</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>5.827669579354021</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>9.793941573884645</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>4.064279080649984</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>1.630094052350391</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>1.378227962868325</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>1.837052510399183</v>
+      </c>
+      <c r="M15" s="6" t="n">
+        <v>0.8924937927908297</v>
+      </c>
+      <c r="N15" s="6" t="n">
+        <v>0.9346475535136358</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -1208,12 +1173,12 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
     <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
